--- a/data/smoking.xlsx
+++ b/data/smoking.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\Practicum\Practicum\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timjlee/Desktop/R Projects/Practicum/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B215102-54D4-4F08-B706-D7203E2AB884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F529698E-68DD-7D4F-9C00-D8E814B5792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -440,20 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,12 +482,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>159</v>
       </c>
-      <c r="B2" s="2">
-        <v>44299</v>
+      <c r="B2">
+        <v>2021</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -484,12 +496,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>969</v>
       </c>
-      <c r="B3" s="2">
-        <v>42544</v>
+      <c r="B3">
+        <v>2016</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -498,12 +510,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B4" s="2">
-        <v>42619</v>
+      <c r="B4">
+        <v>2016</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -512,12 +524,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5" s="2">
-        <v>42621</v>
+      <c r="B5">
+        <v>2016</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -526,12 +538,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1014</v>
       </c>
-      <c r="B6" s="2">
-        <v>42656</v>
+      <c r="B6">
+        <v>2016</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -540,12 +552,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1015</v>
       </c>
-      <c r="B7" s="2">
-        <v>42661</v>
+      <c r="B7">
+        <v>2016</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -554,12 +566,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1020</v>
       </c>
-      <c r="B8" s="2">
-        <v>42684</v>
+      <c r="B8">
+        <v>2016</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -568,12 +580,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1026</v>
       </c>
-      <c r="B9" s="2">
-        <v>42696</v>
+      <c r="B9">
+        <v>2016</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -582,12 +594,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1035</v>
       </c>
-      <c r="B10" s="2">
-        <v>42759</v>
+      <c r="B10">
+        <v>2017</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -596,12 +608,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1043</v>
       </c>
-      <c r="B11" s="2">
-        <v>42748</v>
+      <c r="B11">
+        <v>2017</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -610,12 +622,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1081</v>
       </c>
-      <c r="B12" s="2">
-        <v>42922</v>
+      <c r="B12">
+        <v>2017</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -624,12 +636,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1103</v>
       </c>
-      <c r="B13" s="2">
-        <v>42894</v>
+      <c r="B13">
+        <v>2017</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -638,12 +650,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1133</v>
       </c>
-      <c r="B14" s="2">
-        <v>42997</v>
+      <c r="B14">
+        <v>2017</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -652,12 +664,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1136</v>
       </c>
-      <c r="B15" s="2">
-        <v>42991</v>
+      <c r="B15">
+        <v>2017</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -666,12 +678,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1150</v>
       </c>
-      <c r="B16" s="2">
-        <v>43067</v>
+      <c r="B16">
+        <v>2017</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -680,12 +692,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1245</v>
       </c>
-      <c r="B17" s="2">
-        <v>43300</v>
+      <c r="B17">
+        <v>2018</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -694,12 +706,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1394</v>
       </c>
-      <c r="B18" s="2">
-        <v>44481</v>
+      <c r="B18">
+        <v>2021</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -708,12 +720,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1478</v>
       </c>
-      <c r="B19" s="2">
-        <v>44399</v>
+      <c r="B19">
+        <v>2021</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -722,12 +734,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1502</v>
       </c>
-      <c r="B20" s="2">
-        <v>44257</v>
+      <c r="B20">
+        <v>2021</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -736,12 +748,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1533</v>
       </c>
-      <c r="B21" s="2">
-        <v>44313</v>
+      <c r="B21">
+        <v>2021</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -750,12 +762,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1537</v>
       </c>
-      <c r="B22" s="2">
-        <v>44308</v>
+      <c r="B22">
+        <v>2021</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -764,12 +776,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1540</v>
       </c>
-      <c r="B23" s="2">
-        <v>44308</v>
+      <c r="B23">
+        <v>2021</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -778,12 +790,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1547</v>
       </c>
-      <c r="B24" s="2">
-        <v>44323</v>
+      <c r="B24">
+        <v>2021</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -792,12 +804,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1603</v>
       </c>
-      <c r="B25" s="2">
-        <v>44392</v>
+      <c r="B25">
+        <v>2021</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -806,12 +818,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1604</v>
       </c>
-      <c r="B26" s="2">
-        <v>44392</v>
+      <c r="B26">
+        <v>2021</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -820,12 +832,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1625</v>
       </c>
-      <c r="B27" s="2">
-        <v>44434</v>
+      <c r="B27">
+        <v>2021</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -834,12 +846,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1640</v>
       </c>
-      <c r="B28" s="2">
-        <v>44470</v>
+      <c r="B28">
+        <v>2021</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -848,12 +860,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1650</v>
       </c>
-      <c r="B29" s="2">
-        <v>44483</v>
+      <c r="B29">
+        <v>2021</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -862,12 +874,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1716</v>
       </c>
-      <c r="B30" s="2">
-        <v>44586</v>
+      <c r="B30">
+        <v>2022</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -876,12 +888,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1732</v>
       </c>
-      <c r="B31" s="2">
-        <v>44602</v>
+      <c r="B31">
+        <v>2022</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -890,12 +902,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1483</v>
       </c>
-      <c r="B32" s="2">
-        <v>44217</v>
+      <c r="B32">
+        <v>2021</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -907,12 +919,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1758</v>
       </c>
-      <c r="B33" s="2">
-        <v>44623</v>
+      <c r="B33">
+        <v>2022</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -924,12 +936,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>401</v>
       </c>
-      <c r="B34" s="2">
-        <v>42542</v>
+      <c r="B34">
+        <v>2016</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -941,12 +953,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>436</v>
       </c>
-      <c r="B35" s="2">
-        <v>42509</v>
+      <c r="B35">
+        <v>2016</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -958,12 +970,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>631</v>
       </c>
-      <c r="B36" s="2">
-        <v>43809</v>
+      <c r="B36">
+        <v>2019</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -975,12 +987,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>676</v>
       </c>
-      <c r="B37" s="2">
-        <v>42605</v>
+      <c r="B37">
+        <v>2016</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -992,12 +1004,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>726</v>
       </c>
-      <c r="B38" s="2">
-        <v>42789</v>
+      <c r="B38">
+        <v>2017</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1009,12 +1021,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>735</v>
       </c>
-      <c r="B39" s="2">
-        <v>43013</v>
+      <c r="B39">
+        <v>2017</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1026,12 +1038,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>836</v>
       </c>
-      <c r="B40" s="2">
-        <v>44343</v>
+      <c r="B40">
+        <v>2021</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1043,12 +1055,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>885</v>
       </c>
-      <c r="B41" s="2">
-        <v>42509</v>
+      <c r="B41">
+        <v>2016</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1060,12 +1072,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>959</v>
       </c>
-      <c r="B42" s="2">
-        <v>42507</v>
+      <c r="B42">
+        <v>2016</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1077,12 +1089,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>974</v>
       </c>
-      <c r="B43" s="2">
-        <v>42565</v>
+      <c r="B43">
+        <v>2016</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1094,12 +1106,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1010</v>
       </c>
-      <c r="B44" s="2">
-        <v>42642</v>
+      <c r="B44">
+        <v>2016</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1111,12 +1123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1017</v>
       </c>
-      <c r="B45" s="2">
-        <v>42663</v>
+      <c r="B45">
+        <v>2016</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1128,12 +1140,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1022</v>
       </c>
-      <c r="B46" s="2">
-        <v>42689</v>
+      <c r="B46">
+        <v>2016</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1145,12 +1157,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1028</v>
       </c>
-      <c r="B47" s="2">
-        <v>44427</v>
+      <c r="B47">
+        <v>2021</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1162,12 +1174,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1029</v>
       </c>
-      <c r="B48" s="2">
-        <v>42724</v>
+      <c r="B48">
+        <v>2016</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1179,12 +1191,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1030</v>
       </c>
-      <c r="B49" s="2">
-        <v>42717</v>
+      <c r="B49">
+        <v>2016</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1196,12 +1208,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1033</v>
       </c>
-      <c r="B50" s="2">
-        <v>42753</v>
+      <c r="B50">
+        <v>2017</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1213,12 +1225,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1036</v>
       </c>
-      <c r="B51" s="2">
-        <v>42773</v>
+      <c r="B51">
+        <v>2017</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1230,12 +1242,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1052</v>
       </c>
-      <c r="B52" s="2">
-        <v>42817</v>
+      <c r="B52">
+        <v>2017</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1247,12 +1259,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1064</v>
       </c>
-      <c r="B53" s="2">
-        <v>42829</v>
+      <c r="B53">
+        <v>2017</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1264,12 +1276,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1096</v>
       </c>
-      <c r="B54" s="2">
-        <v>42886</v>
+      <c r="B54">
+        <v>2017</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1281,12 +1293,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1112</v>
       </c>
-      <c r="B55" s="2">
-        <v>42922</v>
+      <c r="B55">
+        <v>2017</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1298,12 +1310,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1115</v>
       </c>
-      <c r="B56" s="2">
-        <v>42927</v>
+      <c r="B56">
+        <v>2017</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1315,12 +1327,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1127</v>
       </c>
-      <c r="B57" s="2">
-        <v>42990</v>
+      <c r="B57">
+        <v>2017</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1332,12 +1344,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1134</v>
       </c>
-      <c r="B58" s="2">
-        <v>42997</v>
+      <c r="B58">
+        <v>2017</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1349,12 +1361,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1138</v>
       </c>
-      <c r="B59" s="2">
-        <v>42997</v>
+      <c r="B59">
+        <v>2017</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1366,12 +1378,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1157</v>
       </c>
-      <c r="B60" s="2">
-        <v>43081</v>
+      <c r="B60">
+        <v>2017</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1383,12 +1395,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1192</v>
       </c>
-      <c r="B61" s="2">
-        <v>43165</v>
+      <c r="B61">
+        <v>2018</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1400,12 +1412,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1215</v>
       </c>
-      <c r="B62" s="2">
-        <v>43249</v>
+      <c r="B62">
+        <v>2018</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1417,12 +1429,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1223</v>
       </c>
-      <c r="B63" s="2">
-        <v>43221</v>
+      <c r="B63">
+        <v>2018</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1434,12 +1446,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1226</v>
       </c>
-      <c r="B64" s="2">
-        <v>43223</v>
+      <c r="B64">
+        <v>2018</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1451,12 +1463,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1229</v>
       </c>
-      <c r="B65" s="2">
-        <v>43263</v>
+      <c r="B65">
+        <v>2018</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1468,12 +1480,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1244</v>
       </c>
-      <c r="B66" s="2">
-        <v>43306</v>
+      <c r="B66">
+        <v>2018</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1485,12 +1497,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1254</v>
       </c>
-      <c r="B67" s="2">
-        <v>43328</v>
+      <c r="B67">
+        <v>2018</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1502,12 +1514,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1261</v>
       </c>
-      <c r="B68" s="2">
-        <v>43361</v>
+      <c r="B68">
+        <v>2018</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1519,12 +1531,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1264</v>
       </c>
-      <c r="B69" s="2">
-        <v>43375</v>
+      <c r="B69">
+        <v>2018</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1536,12 +1548,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1267</v>
       </c>
-      <c r="B70" s="2">
-        <v>43389</v>
+      <c r="B70">
+        <v>2018</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -1553,12 +1565,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1278</v>
       </c>
-      <c r="B71" s="2">
-        <v>43473</v>
+      <c r="B71">
+        <v>2019</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1570,12 +1582,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1393</v>
       </c>
-      <c r="B72" s="2">
-        <v>43809</v>
+      <c r="B72">
+        <v>2019</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -1587,12 +1599,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1402</v>
       </c>
-      <c r="B73" s="2">
-        <v>43851</v>
+      <c r="B73">
+        <v>2020</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1604,12 +1616,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1414</v>
       </c>
-      <c r="B74" s="2">
-        <v>43895</v>
+      <c r="B74">
+        <v>2020</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -1621,12 +1633,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1415</v>
       </c>
-      <c r="B75" s="2">
-        <v>43921</v>
+      <c r="B75">
+        <v>2020</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -1638,12 +1650,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1425</v>
       </c>
-      <c r="B76" s="2">
-        <v>44075</v>
+      <c r="B76">
+        <v>2020</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -1655,12 +1667,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1476</v>
       </c>
-      <c r="B77" s="2">
-        <v>44201</v>
+      <c r="B77">
+        <v>2021</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1672,12 +1684,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1482</v>
       </c>
-      <c r="B78" s="2">
-        <v>44215</v>
+      <c r="B78">
+        <v>2021</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1689,12 +1701,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1494</v>
       </c>
-      <c r="B79" s="2">
-        <v>44238</v>
+      <c r="B79">
+        <v>2021</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1706,12 +1718,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1511</v>
       </c>
-      <c r="B80" s="2">
-        <v>44266</v>
+      <c r="B80">
+        <v>2021</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -1723,12 +1735,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1519</v>
       </c>
-      <c r="B81" s="2">
-        <v>44285</v>
+      <c r="B81">
+        <v>2021</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -1740,12 +1752,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1522</v>
       </c>
-      <c r="B82" s="2">
-        <v>44278</v>
+      <c r="B82">
+        <v>2021</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -1757,12 +1769,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1527</v>
       </c>
-      <c r="B83" s="2">
-        <v>44292</v>
+      <c r="B83">
+        <v>2021</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -1774,12 +1786,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1536</v>
       </c>
-      <c r="B84" s="2">
-        <v>44308</v>
+      <c r="B84">
+        <v>2021</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -1791,12 +1803,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1548</v>
       </c>
-      <c r="B85" s="2">
-        <v>44322</v>
+      <c r="B85">
+        <v>2021</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -1808,12 +1820,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1558</v>
       </c>
-      <c r="B86" s="2">
-        <v>44329</v>
+      <c r="B86">
+        <v>2021</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -1825,12 +1837,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1560</v>
       </c>
-      <c r="B87" s="2">
-        <v>44329</v>
+      <c r="B87">
+        <v>2021</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -1842,12 +1854,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1562</v>
       </c>
-      <c r="B88" s="2">
-        <v>44355</v>
+      <c r="B88">
+        <v>2021</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -1859,12 +1871,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1564</v>
       </c>
-      <c r="B89" s="2">
-        <v>44329</v>
+      <c r="B89">
+        <v>2021</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -1873,12 +1885,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1572</v>
       </c>
-      <c r="B90" s="2">
-        <v>44343</v>
+      <c r="B90">
+        <v>2021</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -1890,12 +1902,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1581</v>
       </c>
-      <c r="B91" s="2">
-        <v>44355</v>
+      <c r="B91">
+        <v>2021</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -1907,12 +1919,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1582</v>
       </c>
-      <c r="B92" s="2">
-        <v>44376</v>
+      <c r="B92">
+        <v>2021</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -1924,12 +1936,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1605</v>
       </c>
-      <c r="B93" s="2">
-        <v>44397</v>
+      <c r="B93">
+        <v>2021</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -1941,12 +1953,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1606</v>
       </c>
-      <c r="B94" s="2">
-        <v>44397</v>
+      <c r="B94">
+        <v>2021</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -1958,12 +1970,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1619</v>
       </c>
-      <c r="B95" s="2">
-        <v>44420</v>
+      <c r="B95">
+        <v>2021</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -1975,12 +1987,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1628</v>
       </c>
-      <c r="B96" s="2">
-        <v>44439</v>
+      <c r="B96">
+        <v>2021</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -1992,12 +2004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1638</v>
       </c>
-      <c r="B97" s="2">
-        <v>44462</v>
+      <c r="B97">
+        <v>2021</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -2009,12 +2021,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1648</v>
       </c>
-      <c r="B98" s="2">
-        <v>44483</v>
+      <c r="B98">
+        <v>2021</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -2026,12 +2038,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1655</v>
       </c>
-      <c r="B99" s="2">
-        <v>44490</v>
+      <c r="B99">
+        <v>2021</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -2040,12 +2052,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1697</v>
       </c>
-      <c r="B100" s="2">
-        <v>44539</v>
+      <c r="B100">
+        <v>2021</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -2057,12 +2069,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1699</v>
       </c>
-      <c r="B101" s="2">
-        <v>44539</v>
+      <c r="B101">
+        <v>2021</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -2074,12 +2086,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1711</v>
       </c>
-      <c r="B102" s="2">
-        <v>44565</v>
+      <c r="B102">
+        <v>2022</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -2091,12 +2103,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1729</v>
       </c>
-      <c r="B103" s="2">
-        <v>44602</v>
+      <c r="B103">
+        <v>2022</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -2108,12 +2120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1731</v>
       </c>
-      <c r="B104" s="2">
-        <v>44602</v>
+      <c r="B104">
+        <v>2022</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -2125,12 +2137,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1733</v>
       </c>
-      <c r="B105" s="2">
-        <v>44602</v>
+      <c r="B105">
+        <v>2022</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -2142,12 +2154,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1735</v>
       </c>
-      <c r="B106" s="2">
-        <v>44602</v>
+      <c r="B106">
+        <v>2022</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -2156,12 +2168,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1743</v>
       </c>
-      <c r="B107" s="2">
-        <v>44610</v>
+      <c r="B107">
+        <v>2022</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -2173,12 +2185,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1770</v>
       </c>
-      <c r="B108" s="2">
-        <v>44630</v>
+      <c r="B108">
+        <v>2022</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -2190,12 +2202,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1669</v>
       </c>
-      <c r="B109" s="2">
-        <v>44509</v>
+      <c r="B109">
+        <v>2021</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -2207,551 +2219,551 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1607</v>
       </c>
-      <c r="B110" s="2">
-        <v>44399</v>
+      <c r="B110">
+        <v>2021</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1618</v>
       </c>
-      <c r="B111" s="2">
-        <v>44420</v>
+      <c r="B111">
+        <v>2021</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>186</v>
       </c>
-      <c r="B112" s="2">
-        <v>42572</v>
+      <c r="B112">
+        <v>2016</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>618</v>
       </c>
-      <c r="B113" s="2">
-        <v>42586</v>
+      <c r="B113">
+        <v>2016</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>736</v>
       </c>
-      <c r="B114" s="2">
-        <v>44609</v>
+      <c r="B114">
+        <v>2022</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>954</v>
       </c>
-      <c r="B115" s="2">
-        <v>42873</v>
+      <c r="B115">
+        <v>2017</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>965</v>
       </c>
-      <c r="B116" s="2">
-        <v>42537</v>
+      <c r="B116">
+        <v>2016</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>973</v>
       </c>
-      <c r="B117" s="2">
-        <v>42565</v>
+      <c r="B117">
+        <v>2016</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>983</v>
       </c>
-      <c r="B118" s="2">
-        <v>42586</v>
+      <c r="B118">
+        <v>2016</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>986</v>
       </c>
-      <c r="B119" s="2">
-        <v>42586</v>
+      <c r="B119">
+        <v>2016</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>995</v>
       </c>
-      <c r="B120" s="2">
-        <v>42607</v>
+      <c r="B120">
+        <v>2016</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1002</v>
       </c>
-      <c r="B121" s="2">
-        <v>42621</v>
+      <c r="B121">
+        <v>2016</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1008</v>
       </c>
-      <c r="B122" s="2">
-        <v>42635</v>
+      <c r="B122">
+        <v>2016</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1046</v>
       </c>
-      <c r="B123" s="2">
-        <v>42768</v>
+      <c r="B123">
+        <v>2017</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1152</v>
       </c>
-      <c r="B124" s="2">
-        <v>43067</v>
+      <c r="B124">
+        <v>2017</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1160</v>
       </c>
-      <c r="B125" s="2">
-        <v>43088</v>
+      <c r="B125">
+        <v>2017</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1185</v>
       </c>
-      <c r="B126" s="2">
-        <v>44420</v>
+      <c r="B126">
+        <v>2021</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1211</v>
       </c>
-      <c r="B127" s="2">
-        <v>43188</v>
+      <c r="B127">
+        <v>2018</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1221</v>
       </c>
-      <c r="B128" s="2">
-        <v>43216</v>
+      <c r="B128">
+        <v>2018</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1266</v>
       </c>
-      <c r="B129" s="2">
-        <v>44441</v>
+      <c r="B129">
+        <v>2021</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1427</v>
       </c>
-      <c r="B130" s="2">
-        <v>44089</v>
+      <c r="B130">
+        <v>2020</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1430</v>
       </c>
-      <c r="B131" s="2">
-        <v>44096</v>
+      <c r="B131">
+        <v>2020</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1467</v>
       </c>
-      <c r="B132" s="2">
-        <v>44182</v>
+      <c r="B132">
+        <v>2020</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1484</v>
       </c>
-      <c r="B133" s="2">
-        <v>44224</v>
+      <c r="B133">
+        <v>2021</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1486</v>
       </c>
-      <c r="B134" s="2">
-        <v>44229</v>
+      <c r="B134">
+        <v>2021</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1498</v>
       </c>
-      <c r="B135" s="2">
-        <v>44245</v>
+      <c r="B135">
+        <v>2021</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1505</v>
       </c>
-      <c r="B136" s="2">
-        <v>44259</v>
+      <c r="B136">
+        <v>2021</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1528</v>
       </c>
-      <c r="B137" s="2">
-        <v>44294</v>
+      <c r="B137">
+        <v>2021</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1529</v>
       </c>
-      <c r="B138" s="2">
-        <v>44294</v>
+      <c r="B138">
+        <v>2021</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1531</v>
       </c>
-      <c r="B139" s="2">
-        <v>44294</v>
+      <c r="B139">
+        <v>2021</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1535</v>
       </c>
-      <c r="B140" s="2">
-        <v>44308</v>
+      <c r="B140">
+        <v>2021</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1568</v>
       </c>
-      <c r="B141" s="2">
-        <v>44336</v>
+      <c r="B141">
+        <v>2021</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1569</v>
       </c>
-      <c r="B142" s="2">
-        <v>44336</v>
+      <c r="B142">
+        <v>2021</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1573</v>
       </c>
-      <c r="B143" s="2">
-        <v>44343</v>
+      <c r="B143">
+        <v>2021</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1574</v>
       </c>
-      <c r="B144" s="2">
-        <v>44343</v>
+      <c r="B144">
+        <v>2021</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1584</v>
       </c>
-      <c r="B145" s="2">
-        <v>44357</v>
+      <c r="B145">
+        <v>2021</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1616</v>
       </c>
-      <c r="B146" s="2">
-        <v>44446</v>
+      <c r="B146">
+        <v>2021</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1617</v>
       </c>
-      <c r="B147" s="2">
-        <v>44420</v>
+      <c r="B147">
+        <v>2021</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1620</v>
       </c>
-      <c r="B148" s="2">
-        <v>44420</v>
+      <c r="B148">
+        <v>2021</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1635</v>
       </c>
-      <c r="B149" s="2">
-        <v>44455</v>
+      <c r="B149">
+        <v>2021</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1637</v>
       </c>
-      <c r="B150" s="2">
-        <v>44455</v>
+      <c r="B150">
+        <v>2021</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1643</v>
       </c>
-      <c r="B151" s="2">
-        <v>44476</v>
+      <c r="B151">
+        <v>2021</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1645</v>
       </c>
-      <c r="B152" s="2">
-        <v>44483</v>
+      <c r="B152">
+        <v>2021</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1654</v>
       </c>
-      <c r="B153" s="2">
-        <v>44490</v>
+      <c r="B153">
+        <v>2021</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1656</v>
       </c>
-      <c r="B154" s="2">
-        <v>44490</v>
+      <c r="B154">
+        <v>2021</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1663</v>
       </c>
-      <c r="B155" s="2">
-        <v>44497</v>
+      <c r="B155">
+        <v>2021</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1709</v>
       </c>
-      <c r="B156" s="2">
-        <v>44551</v>
+      <c r="B156">
+        <v>2021</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1710</v>
       </c>
-      <c r="B157" s="2">
-        <v>44551</v>
+      <c r="B157">
+        <v>2021</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1734</v>
       </c>
-      <c r="B158" s="2">
-        <v>44602</v>
+      <c r="B158">
+        <v>2022</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1769</v>
       </c>
-      <c r="B159" s="2">
-        <v>44630</v>
+      <c r="B159">
+        <v>2022</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
